--- a/data/trans_orig/IP16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB30CF08-9E99-42EC-ACE5-F2CE008C26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B04FCF-DBD3-45E7-80FB-FFE705227C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33538CB1-4142-46E4-9165-DDE5FDBCE82E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10139983-600C-44F8-948B-3EDB24FFDE88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="44">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -139,31 +139,22 @@
     <t>70,83%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
     <t>37,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
     <t>63,75%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>45,29%</t>
+    <t>34,5%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -172,16 +163,13 @@
     <t>27,08%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2015 (Tasa respuesta: 0,24%)</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6AF9C7-F302-44D6-94AF-2E73AAF572B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC248AA-EDB5-493E-86C9-4357F5F54FDC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1326,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2175800-BA27-42EE-B6C3-7CF4D4BD13A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BFDD8E-A2E8-477D-941C-38DDEF5A6717}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1516,7 +1504,7 @@
         <v>798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -1531,13 +1519,13 @@
         <v>798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1924,10 +1912,10 @@
         <v>2149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -1939,10 +1927,10 @@
         <v>4816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1966,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1975,13 +1963,13 @@
         <v>798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1990,13 +1978,13 @@
         <v>798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D982AE-264F-4F7C-95CF-3F7071A87537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4CFAE4-3D92-4D79-97E9-4E4220DD12D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">

--- a/data/trans_orig/IP16B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B04FCF-DBD3-45E7-80FB-FFE705227C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CE2E53-4ED8-4D2F-81D7-C81FA302EA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10139983-600C-44F8-948B-3EDB24FFDE88}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CE731CC9-2DE2-4C4B-8B12-DD1D48C51063}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="48">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -139,34 +139,46 @@
     <t>70,83%</t>
   </si>
   <si>
+    <t>20,22%</t>
+  </si>
+  <si>
     <t>37,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>34,5%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>65,5%</t>
+    <t>60,45%</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
@@ -581,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC248AA-EDB5-493E-86C9-4357F5F54FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B52746-8788-4812-BB0B-058479E1F380}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -699,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1342</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -714,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>598</v>
+        <v>1342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -801,25 +813,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>598</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1342</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>598</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -854,31 +866,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
         <v>1871</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1445</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -917,7 +929,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -932,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -956,25 +968,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
         <v>1871</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1445</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1146,31 +1158,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2043</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3213</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1209,7 +1221,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1224,7 +1236,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1248,25 +1260,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>3213</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1314,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BFDD8E-A2E8-477D-941C-38DDEF5A6717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E4AAE-A02B-41CA-9F5C-4538B281A6B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1432,34 +1444,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1331</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>607</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1331</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -1471,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1483,34 +1495,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>798</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1519,13 +1531,13 @@
         <v>798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,25 +1546,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2129</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>607</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2129</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1587,10 +1599,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1338</v>
+        <v>818</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1602,10 +1614,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>818</v>
+        <v>1338</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1689,25 +1701,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>818</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>1338</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>818</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1742,32 +1754,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>722</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1779,7 +1791,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1793,30 +1805,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1831,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>722</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1891,34 +1903,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2149</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2667</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2149</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1927,10 +1939,10 @@
         <v>4816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1942,34 +1954,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>798</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1978,13 +1990,13 @@
         <v>798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2667</v>
+        <v>2947</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2011,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>2947</v>
+        <v>2667</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2059,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4CFAE4-3D92-4D79-97E9-4E4220DD12D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EC5AAF-5F0E-49AB-8F1C-88FC2197ADFD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2076,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2177,32 +2189,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>617</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2214,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2228,30 +2240,30 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2266,7 +2278,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,32 +2287,32 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>617</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2326,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1214</v>
+        <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -2341,10 +2353,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>524</v>
+        <v>1214</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -2428,25 +2440,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>524</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>1214</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>524</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2481,32 +2493,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>646</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2518,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2532,30 +2544,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2570,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,32 +2591,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>646</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2630,31 +2642,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
+        <v>1141</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
         <v>1859</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2693,7 +2705,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2708,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2732,25 +2744,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
+        <v>1141</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
         <v>1859</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1141</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
